--- a/docs/source/recursos/pesca/tabla_cat_fv_acua_bio_cobertura_usv_svi_16cats.xlsx
+++ b/docs/source/recursos/pesca/tabla_cat_fv_acua_bio_cobertura_usv_svi_16cats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pesca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pesca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624264B-DCD9-4BD2-A53D-D96A7B62C036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E686D-B189-4061-88BD-FAD54CA093E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47E6209A-041C-4B9D-A705-7AED75CCB009}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{47E6209A-041C-4B9D-A705-7AED75CCB009}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Sin vegetación</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>Tular</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
@@ -469,23 +469,23 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -717,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
